--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689891.924375485</v>
+        <v>-670151.6276902888</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306644</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9517347.183184836</v>
+        <v>9565775.735736419</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>381.8283736562763</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>31.29168435881413</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>159.5912704485361</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0046677730687</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>205.0783572980733</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>324.0545642944196</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>219.7703493858182</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>263.3564484371379</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,13 +1133,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>117.7428318860276</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>211.8785736421036</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>108.0126468647703</v>
+        <v>142.4359347523203</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.137494952273542</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>275.5146986586528</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735226269</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394207</v>
+        <v>67.42894579208307</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,7 +1774,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>67.68074767021406</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>195.8910553508163</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.550686977299</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864829</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>103.3456594571967</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>31.24391673888152</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>31.24391673888162</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617045</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432451</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3676,7 +3676,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277825</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
         <v>71.53763939432405</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
         <v>413.2012870545404</v>
@@ -3992,7 +3992,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925404</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4037,13 +4037,13 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X44" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432409</v>
+        <v>71.53763939432322</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934508</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
         <v>267.8502427095265</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1234.215327408404</v>
+        <v>1769.744193910141</v>
       </c>
       <c r="C2" t="n">
-        <v>805.6336531456727</v>
+        <v>1331.601721093564</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>895.6919362680085</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>461.9171914263036</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>438.0901658759154</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301592</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312592</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271186</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2619.43194747568</v>
       </c>
       <c r="X2" t="n">
-        <v>1664.760617553255</v>
+        <v>2200.289484054991</v>
       </c>
       <c r="Y2" t="n">
-        <v>1256.474493852908</v>
+        <v>1792.003360354644</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517777</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884199</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349732</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>262.9095202619269</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780885</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427239</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094246</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098155</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218279</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134401</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523201</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315408</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.0996549038641</v>
+        <v>691.6634042444275</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>519.1016927276524</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>357.8983892442827</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>357.8983892442827</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>357.8983892442827</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>192.3071142701103</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048486</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>413.7430796963103</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>831.9529614642714</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159911</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024243</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.829176729615</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2439.587808027612</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2193.708361606067</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1915.275360859172</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.310028289439</v>
+        <v>1628.319852729602</v>
       </c>
       <c r="W4" t="n">
-        <v>1410.310028289439</v>
+        <v>1356.293448315894</v>
       </c>
       <c r="X4" t="n">
-        <v>1164.918273622851</v>
+        <v>1110.901693649306</v>
       </c>
       <c r="Y4" t="n">
-        <v>1164.918273622851</v>
+        <v>883.4820229634147</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>1122.193246817765</v>
       </c>
       <c r="D5" t="n">
-        <v>790.269974958836</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>361.6883006961043</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>766.5367714259833</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>593.9750599092082</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1431.16681549745</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.775060830862</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.3553901449704</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.456824630307</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>620.3143518137308</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D8" t="n">
-        <v>501.3821983935009</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>471.6478575922001</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>43.78042800140785</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>43.78042800140785</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>43.78042800140785</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854785</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.6183260814657</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>925.7778106177766</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>925.7778106177766</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>925.7778106177766</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>925.7778106177766</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>925.7778106177766</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646056</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674336</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427393</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.181931427393</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.181931427393</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1908.959628744409</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1908.959628744409</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W8" t="n">
-        <v>1908.144578195847</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.042518815562</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>1484.756395115215</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198407</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564829</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030362</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299899</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461515</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233538</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854785</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900544</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.9856367552177</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647834973</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984737</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984737</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984737</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984737</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984737</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886341</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.192499681503</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203831</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.8392846996038</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1122.421799240429</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>949.8600877236541</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>783.9820949251769</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>614.2240911759142</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>437.5170371376703</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>271.925762163498</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>132.0235878538725</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854785</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>129.9433237932377</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>404.7017783643733</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>790.5542102092927</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>790.5542102092927</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1232.813013366937</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1652.482262592719</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1999.989156563061</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427393</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2168.181931427393</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2168.181931427393</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2168.181931427393</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>2168.181931427393</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>2059.078247725604</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1787.051843311896</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1541.660088645308</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1314.240417959416</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2207.630460492875</v>
+        <v>1771.893784893952</v>
       </c>
       <c r="C11" t="n">
-        <v>1769.487987676299</v>
+        <v>1771.893784893952</v>
       </c>
       <c r="D11" t="n">
-        <v>1333.578202850743</v>
+        <v>1335.984000068396</v>
       </c>
       <c r="E11" t="n">
-        <v>899.8034580090384</v>
+        <v>902.2092552266913</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9360284182462</v>
+        <v>474.3418256358991</v>
       </c>
       <c r="G11" t="n">
-        <v>70.53819704151005</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151005</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151005</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944279</v>
+        <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>1340.143176452606</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1611.935410545073</v>
+        <v>1369.709123209018</v>
       </c>
       <c r="M11" t="n">
-        <v>1611.935410545073</v>
+        <v>1369.709123209018</v>
       </c>
       <c r="N11" t="n">
-        <v>2484.845598933759</v>
+        <v>1369.709123209018</v>
       </c>
       <c r="O11" t="n">
-        <v>3357.755787322445</v>
+        <v>2272.39105216616</v>
       </c>
       <c r="P11" t="n">
-        <v>3357.755787322445</v>
+        <v>3100.700926999556</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322445</v>
+        <v>3647.199712958151</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075502</v>
+        <v>3647.199712958151</v>
       </c>
       <c r="S11" t="n">
-        <v>3526.909852075502</v>
+        <v>3647.199712958151</v>
       </c>
       <c r="T11" t="n">
-        <v>3526.909852075502</v>
+        <v>3644.030526137672</v>
       </c>
       <c r="U11" t="n">
-        <v>3267.687549392519</v>
+        <v>3384.808223454689</v>
       </c>
       <c r="V11" t="n">
-        <v>2905.070599326345</v>
+        <v>3022.191273388516</v>
       </c>
       <c r="W11" t="n">
-        <v>2626.772923913565</v>
+        <v>2617.335818799549</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.630460492875</v>
+        <v>2198.19335537886</v>
       </c>
       <c r="Y11" t="n">
-        <v>2207.630460492875</v>
+        <v>2198.19335537886</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328028</v>
+        <v>579.1157392504558</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694451</v>
+        <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>377.5689892336513</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>283.448574560605</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591137</v>
+        <v>200.0647361767666</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>114.6796464429505</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151005</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196764</v>
+        <v>99.00766741962062</v>
       </c>
       <c r="J12" t="n">
-        <v>421.16019516818</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="K12" t="n">
-        <v>743.6949920372925</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="L12" t="n">
-        <v>1616.605180425979</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="M12" t="n">
-        <v>1616.605180425979</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="N12" t="n">
-        <v>1616.605180425979</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="O12" t="n">
-        <v>1616.605180425979</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="P12" t="n">
-        <v>1616.605180425979</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1619.010977643632</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1736.183755737972</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1366.213127516925</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944652</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333452</v>
+        <v>826.9054195509982</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.013843112566</v>
+        <v>700.419640330219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.0342341184412</v>
+        <v>1152.002154871044</v>
       </c>
       <c r="C13" t="n">
-        <v>748.4725226016661</v>
+        <v>979.4404433542691</v>
       </c>
       <c r="D13" t="n">
-        <v>582.5945298031888</v>
+        <v>813.5624505557917</v>
       </c>
       <c r="E13" t="n">
-        <v>412.8365260539261</v>
+        <v>643.8044468065291</v>
       </c>
       <c r="F13" t="n">
-        <v>236.1294720156824</v>
+        <v>467.0973927682855</v>
       </c>
       <c r="G13" t="n">
-        <v>70.53819704151005</v>
+        <v>301.5061177941132</v>
       </c>
       <c r="H13" t="n">
-        <v>70.53819704151005</v>
+        <v>161.6039434844877</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151005</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773355</v>
+        <v>434.2821339949884</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>852.4920157629494</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1311.975882943862</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2173.903935327288</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2521.41082929763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.95863790162</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="T13" t="n">
-        <v>2423.079191480076</v>
+        <v>2443.724157740418</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.646190733185</v>
+        <v>2375.614111485789</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.690682603616</v>
+        <v>2088.658603356219</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.664278189908</v>
+        <v>1816.632198942511</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.27252352332</v>
+        <v>1571.240444275923</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.852852837428</v>
+        <v>1343.820773590031</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5276,52 +5276,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>645.8766848899151</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>476.1186811406523</v>
       </c>
       <c r="F16" t="n">
         <v>407.7542895545774</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.496881423524</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1565.470477009816</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X16" t="n">
-        <v>1320.078722343228</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1092.659051657336</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="17">
@@ -5495,61 +5495,61 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K18" t="n">
         <v>1107.588885023173</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G19" t="n">
+        <v>120.500009313464</v>
+      </c>
+      <c r="H19" t="n">
         <v>102.2608402707796</v>
       </c>
-      <c r="H19" t="n">
-        <v>102.2608402707805</v>
-      </c>
       <c r="I19" t="n">
-        <v>102.2608402707805</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354704</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066059</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.808861774567</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050032</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303137</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759859</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,49 +5753,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
         <v>780.1951658309357</v>
@@ -5917,43 +5917,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.754677688392</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
         <v>614.3171730324584</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6294,10 +6294,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
         <v>128.3245134312372</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309359</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856327</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309359</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6838,16 +6838,16 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197252</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>449.602989562749</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936681</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080669</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716802</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463127</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850164</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>169.826945488267</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976694</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,43 +7181,43 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>1128.922221872865</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L39" t="n">
-        <v>1643.633687060287</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M39" t="n">
-        <v>1643.633687060287</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N39" t="n">
-        <v>1643.633687060287</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O39" t="n">
-        <v>1643.633687060287</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080669</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716802</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463125</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850164</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7351,7 +7351,7 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703678</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
@@ -7403,55 +7403,55 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.19279167554</v>
+        <v>3599.279484550324</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>4725.010467986771</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850154</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,31 +7585,31 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7631,52 +7631,52 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.19279167554</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.19279167554</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
         <v>4364.592902403413</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>747.004855336325</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>747.004855336325</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>747.004855336325</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936666</v>
+        <v>905.6649082936665</v>
       </c>
       <c r="D46" t="n">
         <v>756.1866229080654</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716789</v>
+        <v>602.8283265716788</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463113</v>
+        <v>442.5209799463111</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850149</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882657</v>
+        <v>169.8269454882656</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856839</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7819,7 +7819,7 @@
         <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
         <v>2658.547011361804</v>
@@ -7828,7 +7828,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7849,7 +7849,7 @@
         <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>121.1234907850392</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060609</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.25748950982188</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>301.7064061932329</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>451.6762470063747</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568481</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568481</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568481</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>123.429221415394</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568481</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,10 +8614,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>389.7499311564843</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8693,25 +8693,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>274.5376101944107</v>
+        <v>27.43449448359502</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188754</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395376</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>325.7927241102147</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>881.7274630188755</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,22 +8933,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,22 +9170,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,7 +10355,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>324.5237132641533</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,28 +11060,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>753.8499336302475</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>154.8734503071937</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>753.8499336302475</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>849.9694865883675</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>655.9981329904114</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800132</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>214.7290599034182</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>125.2922013844242</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627206</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2197249473426</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-2.128370103836905e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>107.2592358276473</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>88.19489769745758</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>806934.9570112904</v>
+        <v>823501.0576548107</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>806934.9570112904</v>
+        <v>824395.0598920246</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>815387.9052666764</v>
+        <v>824395.0598920246</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648419.0237179316</v>
+        <v>663315.6092941714</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>844844.1696536973</v>
+        <v>844844.1696536972</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844844.1696536973</v>
+        <v>844844.1696536974</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854845.6018739004</v>
+        <v>844844.1696536973</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174247.8789643828</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="C2" t="n">
         <v>174247.8789643827</v>
       </c>
       <c r="D2" t="n">
-        <v>174247.8789643828</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="E2" t="n">
-        <v>131418.2663502877</v>
+        <v>134437.430470031</v>
       </c>
       <c r="F2" t="n">
         <v>171228.7148446395</v>
       </c>
       <c r="G2" t="n">
-        <v>171228.7148446394</v>
+        <v>171228.7148446395</v>
       </c>
       <c r="H2" t="n">
-        <v>171228.7148446394</v>
+        <v>171228.7148446395</v>
       </c>
       <c r="I2" t="n">
         <v>171228.7148446394</v>
@@ -26341,19 +26341,19 @@
         <v>171228.7148446394</v>
       </c>
       <c r="L2" t="n">
+        <v>171228.7148446395</v>
+      </c>
+      <c r="M2" t="n">
         <v>171228.7148446394</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>174247.8789643828</v>
+      </c>
+      <c r="O2" t="n">
+        <v>174247.8789643828</v>
+      </c>
+      <c r="P2" t="n">
         <v>174247.8789643827</v>
-      </c>
-      <c r="N2" t="n">
-        <v>174247.8789643826</v>
-      </c>
-      <c r="O2" t="n">
-        <v>174247.8789643824</v>
-      </c>
-      <c r="P2" t="n">
-        <v>174247.8789643825</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797196</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948863</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835273</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728179</v>
+        <v>72938.043615344</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238712</v>
+        <v>105000.4827540558</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>171392.9763877638</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375078</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610179</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625516014</v>
+        <v>60876.72976950138</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769138</v>
+        <v>88373.14763716054</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>175845.657171999</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>193597.6430719454</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>72819.33244119772</v>
+        <v>74492.26210185923</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875298</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875293</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="J4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="M4" t="n">
-        <v>107302.2988178706</v>
-      </c>
       <c r="N4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
       <c r="O4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
       <c r="P4" t="n">
         <v>107302.2988178705</v>
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.3543699685</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769636</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154763</v>
+        <v>55437.43563696389</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239461.3292697674</v>
+        <v>-294579.3912573043</v>
       </c>
       <c r="C6" t="n">
-        <v>-97270.02861005758</v>
+        <v>-77877.52779276694</v>
       </c>
       <c r="D6" t="n">
-        <v>-122510.2955836117</v>
+        <v>-73854.18086381802</v>
       </c>
       <c r="E6" t="n">
-        <v>-96431.66211527548</v>
+        <v>-68736.54510332341</v>
       </c>
       <c r="F6" t="n">
-        <v>-114984.9943337771</v>
+        <v>-106391.6755033443</v>
       </c>
       <c r="G6" t="n">
-        <v>-1367.968409905967</v>
+        <v>-1391.192749288564</v>
       </c>
       <c r="H6" t="n">
-        <v>-1367.968409905967</v>
+        <v>-1391.192749288578</v>
       </c>
       <c r="I6" t="n">
-        <v>-1367.968409905967</v>
+        <v>-1391.192749288593</v>
       </c>
       <c r="J6" t="n">
-        <v>-112382.4337548963</v>
+        <v>-172784.1691370524</v>
       </c>
       <c r="K6" t="n">
-        <v>-1367.968409905967</v>
+        <v>-4596.314096663676</v>
       </c>
       <c r="L6" t="n">
-        <v>-31169.33883600775</v>
+        <v>-1391.192749288505</v>
       </c>
       <c r="M6" t="n">
-        <v>-91586.24083473778</v>
+        <v>-62267.92251878998</v>
       </c>
       <c r="N6" t="n">
-        <v>-105691.6825572691</v>
+        <v>-96943.182216738</v>
       </c>
       <c r="O6" t="n">
-        <v>-8570.034579577885</v>
+        <v>-8570.034579577463</v>
       </c>
       <c r="P6" t="n">
-        <v>-8570.034579577739</v>
+        <v>-8570.03457957755</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568481</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188755</v>
+        <v>911.7999282395377</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26811,7 +26811,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179618</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367438</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620274</v>
+        <v>244.2847216316808</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658696</v>
+        <v>366.4605751452076</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179618</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367438</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250053</v>
+        <v>244.2847216316808</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658697</v>
+        <v>307.7838677081851</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179618</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367438</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620274</v>
+        <v>244.2847216316808</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658696</v>
+        <v>366.4605751452076</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>15.55547940669248</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>383.6593544276683</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.627942421956448</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08128527520511852</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>226.4723296792266</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>99.53419100046472</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>55.87832135360748</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.949691932433495</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>313.8078550912723</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>147.1122069234081</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>176.0733061835035</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874733</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>121.1234907850392</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060608</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060609</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.25748950982188</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>301.7064061932329</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>451.6762470063747</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568481</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568481</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568481</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>123.429221415394</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568481</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,10 +35334,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>389.7499311564843</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>274.5376101944107</v>
+        <v>27.43449448359502</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188754</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395376</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>325.7927241102147</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>881.7274630188755</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,19 +36285,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36671,7 +36671,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37075,7 +37075,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,13 +37306,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>324.5237132641533</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37719,7 +37719,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>753.8499336302475</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>154.8734503071937</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>753.8499336302475</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>849.9694865883675</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>655.9981329904114</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348438</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343475</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
